--- a/biology/Médecine/Cantharidine/Cantharidine.xlsx
+++ b/biology/Médecine/Cantharidine/Cantharidine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La cantharidine ou anhydride 2, 3-diméthyl-7-oxabicyclo[2,2,1] heptane-2, 3-dicarboxylique : C10H12O4 est une molécule excrétée par certains insectes coléoptères à des fins défensives.
@@ -512,9 +524,11 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cantharidine est isolée pour la première fois par le pharmacien français Pierre Jean Robiquet en 1810[5]. Elle est produite par plusieurs insectes qui, par saignée réflexe de leur hémolymphe à l'articulation de leurs pattes, l'utilisent comme un poison défensif lorsqu'ils sont agressés. Les espèces concernées sont des coléoptères des familles Oedemeridae et Meloidae, en particulier la Cantharide officinale qui lui a donné son nom, mais aussi le Méloé violet qui est particulièrement riche en cantharidine, l'Œdémère ochracé ou encore Cerocoma schaefferi[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cantharidine est isolée pour la première fois par le pharmacien français Pierre Jean Robiquet en 1810. Elle est produite par plusieurs insectes qui, par saignée réflexe de leur hémolymphe à l'articulation de leurs pattes, l'utilisent comme un poison défensif lorsqu'ils sont agressés. Les espèces concernées sont des coléoptères des familles Oedemeridae et Meloidae, en particulier la Cantharide officinale qui lui a donné son nom, mais aussi le Méloé violet qui est particulièrement riche en cantharidine, l'Œdémère ochracé ou encore Cerocoma schaefferi,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cantharidine exsudée par l'insecte provoque des cloques douloureuses sur la peau humaine et le mufle des animaux[7]. Une fois ingéré, ce poison est considéré comme aussi toxique que la strychnine[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cantharidine exsudée par l'insecte provoque des cloques douloureuses sur la peau humaine et le mufle des animaux. Une fois ingéré, ce poison est considéré comme aussi toxique que la strychnine.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médecin grec du premier siècle de notre ère Dioscoride attribue aux Méloés des propriétés aphrodisiaques, mais cet effet stimulant suite à l'ingestion de produits séchés est considéré au XXIe siècle av. J.-C. comme peu fiable et dangereux[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médecin grec du premier siècle de notre ère Dioscoride attribue aux Méloés des propriétés aphrodisiaques, mais cet effet stimulant suite à l'ingestion de produits séchés est considéré au XXIe siècle av. J.-C. comme peu fiable et dangereux.
 La cantharidine entre dans la composition de topiques cutanés en dermatologie pour son action sur l'inhibition des protéines phosphatases 1 (PP1) et 2A (PP2A). Très diluée, elle est utilisée parfois pour traiter les verrues et le Molluscum contagiosum[réf. nécessaire].
 	titre
 			Méloé violet excrétant de la cantharidine.
